--- a/biology/Médecine/Nanisme_diastrophique/Nanisme_diastrophique.xlsx
+++ b/biology/Médecine/Nanisme_diastrophique/Nanisme_diastrophique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nanisme diastrophique  est un nanisme qui est caractérisé par un raccourcissement des membres avec un crâne de taille normale, un pouce dévié rappelant l’aspect du pouce faisant de l’auto-stop, une déformation de la colonne vertébrale et des contractures articulaires.
 </t>
@@ -511,7 +523,9 @@
           <t>Autres noms de la maladie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dysplasie diastrophique</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène SLC26A2, de l'anglais : solute carrier family 26 (sulfate transporter), member 2, situé sur le locus q31-q34 du chromosome 5.
 </t>
@@ -572,7 +588,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1 sur 100 000 naissances.
 </t>
@@ -603,7 +621,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raccourcissement des membres
 Crâne de taille normale
@@ -645,13 +665,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Clinique
-Outre les signes cliniques, les radiographies osseuses permettent de retrouver des signes très évocateurs de la pathologie.
-Histologie
-On retrouve les signes d’absence de protéoglycanes sulfatés dans le cartilage. Le défaut d’incorporation de protéoglycanes sulfatés peut être mis en évidence par la culture de fibroblaste
-Génétique
-L'hybridation in situ en fluorescence permet le diagnostic dans 65 % des cas en mettant en évidence les cinq mutations les plus fréquentes du gène SLC26A2.
-L'analyse séquentielle permet le diagnostic dans 90 % des cas</t>
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les signes cliniques, les radiographies osseuses permettent de retrouver des signes très évocateurs de la pathologie.
+</t>
         </is>
       </c>
     </row>
@@ -676,10 +697,86 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve les signes d’absence de protéoglycanes sulfatés dans le cartilage. Le défaut d’incorporation de protéoglycanes sulfatés peut être mis en évidence par la culture de fibroblaste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'hybridation in situ en fluorescence permet le diagnostic dans 65 % des cas en mettant en évidence les cinq mutations les plus fréquentes du gène SLC26A2.
+L'analyse séquentielle permet le diagnostic dans 90 % des cas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Maladies génétiquement reliées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Trois autres maladies (toutes de transmissions autosomiques récessives) sont en rapport avec des mutations du gène SLC26A2 :
 Achondrogenèse de type IB
@@ -688,31 +785,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Nanisme_diastrophique</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Outre les maladies qui sont en rapport avec la mutation du gène SLC26A2, les autres ostéochondrodysplasies suivantes peuvent être discutées
 Syndrome oto-palato-digital
@@ -721,71 +820,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nanisme_diastrophique</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Diagnostic prénatal</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Grossesse à bas risque
-Le diagnostic échographique est possible mais pas avant le deuxième trimestre.
-Grossesse à haut risque
-Le diagnostic par hybridation in situ par fluorescence est possible après biopsie de trophoblaste ou amniocentèse
-Le diagnostic échographique est possible</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Nanisme_diastrophique</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mode de transmission</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Transmission autosomique récessive
-</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
@@ -807,14 +841,123 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Grossesse à bas risque</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic échographique est possible mais pas avant le deuxième trimestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Diagnostic prénatal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Grossesse à haut risque</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Le diagnostic par hybridation in situ par fluorescence est possible après biopsie de trophoblaste ou amniocentèse
+Le diagnostic échographique est possible</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nanisme_diastrophique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) www.orpha.net, site de renseignement sur les maladies rares et les médicaments orphelins
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:606718 [1]
-(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:606718 
+(en) GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 
  Portail de la médecine                     </t>
         </is>
       </c>
